--- a/output_file_ranint.xlsx
+++ b/output_file_ranint.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00.15</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>65.37</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>62.90</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>67.52</t>
+          <t>60.10</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>54.93</t>
+          <t>65.95</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>98.49</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>43.18</t>
+          <t>58.91</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>67.49</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>03.10</t>
+          <t>36.58</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
